--- a/media/excel_utils/obshi_vizit_excel_Buxoro.xlsx
+++ b/media/excel_utils/obshi_vizit_excel_Buxoro.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K13"/>
+  <dimension ref="A1:K56"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1165,6 +1165,2457 @@
         </is>
       </c>
     </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>2024-03-12 10:57:08</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Xujaeva Marhabo</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>+998904128186</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>Buxoro</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Qorakul markaziy poliklinikasi</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Qorakul ttb</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>Hamzaeva Orzigul</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>Pediatr</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>+998934510191</t>
+        </is>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>entero d bn dogovor bor</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>2024-03-12 11:18:01</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Xujaeva Marhabo</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>+998904128186</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>Buxoro</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Qorakul markaziy poliklinikasi</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Qorakul ttb</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>Qodirov Xudoyberdi</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>Pediatr</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>999635292</t>
+        </is>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>lamino bn dogovor qilindi yozyapti</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>2024-03-12 12:29:26</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Xujaeva Marhabo</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>+998904128186</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>Buxoro</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>Qorakul markaziy poliklinikasi</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Qorakul ttb</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>Bahranova Dilfuza</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>Ginekolog</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>+998943945070</t>
+        </is>
+      </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>intrizol yozyapti ball berildi</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>2024-03-13 10:25:22</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Xujaeva Marhabo</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>+998904128186</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>Buxoro</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>Kogon shahar poliklinikasi</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>Kogon shahar poliklinikasi</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>Yakubova Dildora</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>Ginekolog</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>+998936255446</t>
+        </is>
+      </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>intrizol bn vizit qilindi</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>2024-03-13 10:25:52</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Xujaeva Marhabo</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>+998904128186</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>Buxoro</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>Kogon shahar poliklinikasi</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>Kogon raddom</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>Turaqulova Gulnora</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>Pediatr</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>+998913120987</t>
+        </is>
+      </c>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>lamino bn dogovor qilindi</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>2024-03-14 14:32:36</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Xujaeva Marhabo</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>+998904128186</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>Buxoro</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>Kogon shahar poliklinikasi</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>Kogon raddom</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>Hamidova Nodira</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>Ginekolog</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>+998883045090</t>
+        </is>
+      </c>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>seprazon bn dogovor qilindi</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>2024-03-19 09:25:17</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Xujaeva Marhabo</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>+998904128186</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>Buxoro</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>Buxoro</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>6son oilaviy poliklinika</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>Saidov Shamsillo</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>LOR</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>+998907448068</t>
+        </is>
+      </c>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>tavomed bn dogovor qilindi</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>2024-03-27 09:23:32</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Xujaeva Marhabo</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>+998904128186</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>Buxoro</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>Buxoro</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>2son oilaviy poliklinika</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>Safarova Dilfuza</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>Terapevt</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>+998934515420</t>
+        </is>
+      </c>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>entero d bn vizit qilindi</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>2024-03-27 09:26:31</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Xujaeva Marhabo</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>+998904128186</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>Buxoro</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>Buxoro</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>6son oilaviy poliklinika</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>Saidov Shamsillo</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>LOR</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>+998907448068</t>
+        </is>
+      </c>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>tavomed bn dogovor bor dorini tez kunda savdoda bulishi aytildi</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>2024-03-27 12:36:16</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Xujaeva Marhabo</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>+998904128186</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>Buxoro</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>Kogon shahar poliklinikasi</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>Kogon raddom</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>Hamidova Nodira</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>Ginekolog</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>+998883045090</t>
+        </is>
+      </c>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>astaryus bn dogovor qilindi</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>2024-03-27 12:37:08</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Xujaeva Marhabo</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>+998904128186</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>Buxoro</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>Kogon shahar poliklinikasi</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>Kogon raddom</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>Davronova Munira</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>Ginekolog</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>905114540</t>
+        </is>
+      </c>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>intrizol bn vizit qilindi</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>2024-04-05 09:02:05</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Xujaeva Marhabo</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>+998904128186</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>Buxoro</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>Buxoro</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>6son oilaviy poliklinika</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>Saidov Shamsillo</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>LOR</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>+998907448068</t>
+        </is>
+      </c>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>tavomed yozyapti</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>2024-04-05 14:56:27</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>Xujaeva Marhabo</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>+998904128186</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>Buxoro</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>Vobkent tumani poliklinikasi</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>Vobkent tumani tibbiyot birlashmasi</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>Haydarov Gaybullo</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>Pediatr</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>+998914010055</t>
+        </is>
+      </c>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>tavomed bn qayta dogovor qilindi</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>2024-04-05 14:57:50</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Xujaeva Marhabo</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>+998904128186</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>Buxoro</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>Vobkent tumani poliklinikasi</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>Vobkent tumani tibbiyot birlashmasi</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>Haydarov Gaybullo</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>Pediatr</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>+998914010055</t>
+        </is>
+      </c>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>astraksion yozyapti</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>2024-04-09 11:03:51</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Xujaeva Marhabo</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>+998904128186</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>Buxoro</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>Kogon shahar poliklinikasi</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>Kogon shahar poliklinikasi</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>Yakubova Dildora</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>Ginekolog</t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>+998936255446</t>
+        </is>
+      </c>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>intrizol bn qayta dogovor qilindi</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>2024-04-17 10:10:40</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>Xujaeva Marhabo</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>+998904128186</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>Buxoro</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>shofirkon</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>Shofirkon ttb</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>Juraeva Hibbat</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>Pediatr</t>
+        </is>
+      </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>+998973041930</t>
+        </is>
+      </c>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>entero d bn vizit qilindi</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>2024-04-18 10:53:06</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>Xujaeva Marhabo</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>+998904128186</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>Buxoro</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>Kogon shahar poliklinikasi</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>Kogon shahar poliklinikasi</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>Yakubova Dildora</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>Ginekolog</t>
+        </is>
+      </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>+998936255446</t>
+        </is>
+      </c>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>intrizol bn vizit qilindi</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>2024-04-19 09:13:58</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>Xujaeva Marhabo</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>+998904128186</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>Buxoro</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>Qorakul markaziy poliklinikasi</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>Qorakul ttb</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>Qodirov Xudoyberdi</t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>Pediatr</t>
+        </is>
+      </c>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>999635292</t>
+        </is>
+      </c>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>lamino yozyapti</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>2024-04-19 09:57:49</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>Xujaeva Marhabo</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>+998904128186</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>Buxoro</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>Qorakul markaziy poliklinikasi</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>Qorakul ttb</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>Bahranova Dilfuza</t>
+        </is>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>Ginekolog</t>
+        </is>
+      </c>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>+998943945070</t>
+        </is>
+      </c>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>intrizol yozyapti ball berildi</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>2024-04-19 11:26:35</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>Xujaeva Marhabo</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>+998904128186</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>Buxoro</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>Qorakul markaziy poliklinikasi</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>Qorakul ttb</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>Beshimova Bahodir</t>
+        </is>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>Terapevt</t>
+        </is>
+      </c>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>934722202</t>
+        </is>
+      </c>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>astaryus bn vizit qilindi</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>2024-04-19 11:27:14</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>Xujaeva Marhabo</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>+998904128186</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>Buxoro</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>Qorakul markaziy poliklinikasi</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>Qorakul ttb</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>Hamzaeva Orzigul</t>
+        </is>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>Pediatr</t>
+        </is>
+      </c>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>+998934510191</t>
+        </is>
+      </c>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>entero d va astraksion yozyapti</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>2024-04-19 12:28:27</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>Xujaeva Marhabo</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>+998904128186</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>Buxoro</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>Qorakul markaziy poliklinikasi</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>Qorakul ttb</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>Begiev bekjon</t>
+        </is>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>Kojvenerolog</t>
+        </is>
+      </c>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>973016192</t>
+        </is>
+      </c>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>intrizol bn vdogovor qilindi 500ball berildi</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>2024-04-19 13:58:08</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>Xujaeva Marhabo</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>+998904128186</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>Buxoro</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>Qorakul markaziy poliklinikasi</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>Qorakul ttb</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>Saidov Elbek</t>
+        </is>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>Nefrolog</t>
+        </is>
+      </c>
+      <c r="I36" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>997027796</t>
+        </is>
+      </c>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>lamino 100ml bn vizit qilindi</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>2024-04-19 13:58:39</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>Xujaeva Marhabo</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>+998904128186</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>Buxoro</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>Qorakul markaziy poliklinikasi</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>Qorakul ttb</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>Pirimov zafar</t>
+        </is>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>Kardiolog</t>
+        </is>
+      </c>
+      <c r="I37" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>+998973014742</t>
+        </is>
+      </c>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>lamino yozyapti</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>2024-04-19 14:12:49</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>Xujaeva Marhabo</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>+998904128186</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>Buxoro</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>Qorakul markaziy poliklinikasi</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>Qorakul ttb</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>Hayitov Jafar</t>
+        </is>
+      </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>Nevropotolog</t>
+        </is>
+      </c>
+      <c r="I38" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>997574603</t>
+        </is>
+      </c>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>kompanorm bn vizit qilindi</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>2024-04-22 09:05:59</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>Xujaeva Marhabo</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>+998904128186</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>Buxoro</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>Vobkent tumani poliklinikasi</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>Vobkent tumani tibbiyot birlashmasi</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>Nasullaev Anvar</t>
+        </is>
+      </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>Xirurg</t>
+        </is>
+      </c>
+      <c r="I39" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>+998916474191</t>
+        </is>
+      </c>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>tavomed bn dogovor qilindi</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>2024-04-22 09:43:43</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>Xujaeva Marhabo</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>+998904128186</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>Buxoro</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>Vobkent tumani poliklinikasi</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>Vobkent tumani tibbiyot birlashmasi</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>Davronov Shoakbar</t>
+        </is>
+      </c>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>Nevrolog</t>
+        </is>
+      </c>
+      <c r="I40" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>+998907114369</t>
+        </is>
+      </c>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>tavomed yozyapti kompanorm bn vizit qilindi</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>2024-04-22 10:40:53</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>Xujaeva Marhabo</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>+998904128186</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>Buxoro</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>Vobkent tumani poliklinikasi</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>Vobkent tumani tibbiyot birlashmasi</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>Pulatova Mahliyo</t>
+        </is>
+      </c>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>Ginekolog</t>
+        </is>
+      </c>
+      <c r="I41" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>+998907459212</t>
+        </is>
+      </c>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>intrizol yozyapti</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>2024-04-22 14:13:43</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>Xujaeva Marhabo</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>+998904128186</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>Buxoro</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>Vobkent tumani poliklinikasi</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>Vobkent tumani tibbiyot birlashmasi</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>Nurov Tolib</t>
+        </is>
+      </c>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>Nefrolog</t>
+        </is>
+      </c>
+      <c r="I42" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>+998914030013</t>
+        </is>
+      </c>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>tavomed bn qayta dogovor qilindi</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>2024-04-22 14:14:14</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>Xujaeva Marhabo</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>+998904128186</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>Buxoro</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>Vobkent tumani poliklinikasi</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>Vobkent tumani tibbiyot birlashmasi</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>Mavlonova Dilfuza</t>
+        </is>
+      </c>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>Terapevt</t>
+        </is>
+      </c>
+      <c r="I43" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>+998905134101</t>
+        </is>
+      </c>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t>entero d kapsula yozyapti</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>2024-04-22 14:16:07</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>Xujaeva Marhabo</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>+998904128186</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>Buxoro</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>Vobkent tumani poliklinikasi</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>Vobkent tumani tibbiyot birlashmasi</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>Akramova Mehriniso</t>
+        </is>
+      </c>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>Pediatr</t>
+        </is>
+      </c>
+      <c r="I44" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>+998906137646</t>
+        </is>
+      </c>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>entero d bn vizit qilindi</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>2024-04-23 09:09:57</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>Xujaeva Marhabo</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>+998904128186</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>Buxoro</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>Vobkent tumani poliklinikasi</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>Vobkent tumani tibbiyot birlashmasi</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>Saidov zafar</t>
+        </is>
+      </c>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>Terapevt</t>
+        </is>
+      </c>
+      <c r="I45" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>+998913117718</t>
+        </is>
+      </c>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>lamino 200ml bn vizit qilindi</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>2024-04-24 09:09:20</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>Xujaeva Marhabo</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>+998904128186</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>Buxoro</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>Vobkent tumani poliklinikasi</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>Vobkent tumani tibbiyot birlashmasi</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>Haydarov Gaybullo</t>
+        </is>
+      </c>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>Pediatr</t>
+        </is>
+      </c>
+      <c r="I46" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="J46" t="inlineStr">
+        <is>
+          <t>+998914010055</t>
+        </is>
+      </c>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>astraksion yozyapti</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>2024-04-25 09:35:31</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>Xujaeva Marhabo</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>+998904128186</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>Buxoro</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>Buxoro</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>6son oilaviy poliklinika</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>Saidov Shamsillo</t>
+        </is>
+      </c>
+      <c r="H47" t="inlineStr">
+        <is>
+          <t>LOR</t>
+        </is>
+      </c>
+      <c r="I47" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="J47" t="inlineStr">
+        <is>
+          <t>+998907448068</t>
+        </is>
+      </c>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>tavomed yozyapti</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>2024-04-25 12:17:02</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>Xujaeva Marhabo</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>+998904128186</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>Buxoro</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>Qorakul markaziy poliklinikasi</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>Qorakul ttb</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>Hayitov Jafar</t>
+        </is>
+      </c>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>Nevropotolog</t>
+        </is>
+      </c>
+      <c r="I48" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="J48" t="inlineStr">
+        <is>
+          <t>997574603</t>
+        </is>
+      </c>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>lamino bn dogovor qilindi</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>2024-04-25 12:18:31</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>Xujaeva Marhabo</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>+998904128186</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>Buxoro</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>Qorakul markaziy poliklinikasi</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>Qorakul ttb</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>Ruziev Fazliddin</t>
+        </is>
+      </c>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>Travmatolog</t>
+        </is>
+      </c>
+      <c r="I49" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>977767513</t>
+        </is>
+      </c>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>kompanorm bn vizit qilindi</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>2024-04-25 17:03:22</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>Xujaeva Marhabo</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>+998904128186</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>Buxoro</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>Qorakul markaziy poliklinikasi</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>Qorakul ttb</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>Bahranova Dilfuza</t>
+        </is>
+      </c>
+      <c r="H50" t="inlineStr">
+        <is>
+          <t>Ginekolog</t>
+        </is>
+      </c>
+      <c r="I50" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="J50" t="inlineStr">
+        <is>
+          <t>+998943945070</t>
+        </is>
+      </c>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>tavomed bn vizit qilindi</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>2024-04-25 17:03:44</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>Xujaeva Marhabo</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>+998904128186</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>Buxoro</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>Qorakul markaziy poliklinikasi</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>Qorakul ttb</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>Eshonov Odil</t>
+        </is>
+      </c>
+      <c r="H51" t="inlineStr">
+        <is>
+          <t>Dermatolog</t>
+        </is>
+      </c>
+      <c r="I51" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="J51" t="inlineStr">
+        <is>
+          <t>+998945411978</t>
+        </is>
+      </c>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>entero d yozyapti</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>2024-04-25 17:04:01</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>Xujaeva Marhabo</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>+998904128186</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>Buxoro</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>Qorakul markaziy poliklinikasi</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>Qorakul ttb</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>Maxatov Gani</t>
+        </is>
+      </c>
+      <c r="H52" t="inlineStr">
+        <is>
+          <t>Terapevt</t>
+        </is>
+      </c>
+      <c r="I52" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="J52" t="inlineStr">
+        <is>
+          <t>+998973062444</t>
+        </is>
+      </c>
+      <c r="K52" t="inlineStr">
+        <is>
+          <t>lamino bn vizit qilindi</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>2024-04-25 17:04:40</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>Xujaeva Marhabo</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>+998904128186</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>Buxoro</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>Qorakul markaziy poliklinikasi</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>Qorakul ttb</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>Begiev bekjon</t>
+        </is>
+      </c>
+      <c r="H53" t="inlineStr">
+        <is>
+          <t>Kojvenerolog</t>
+        </is>
+      </c>
+      <c r="I53" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="J53" t="inlineStr">
+        <is>
+          <t>973016192</t>
+        </is>
+      </c>
+      <c r="K53" t="inlineStr">
+        <is>
+          <t>intrizol yozyapti</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>2024-04-25 17:04:58</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>Xujaeva Marhabo</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>+998904128186</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>Buxoro</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>Qorakul markaziy poliklinikasi</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>Qorakul ttb</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>Arabov Zohid</t>
+        </is>
+      </c>
+      <c r="H54" t="inlineStr">
+        <is>
+          <t>Pulmonolog</t>
+        </is>
+      </c>
+      <c r="I54" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="J54" t="inlineStr">
+        <is>
+          <t>+998998200255</t>
+        </is>
+      </c>
+      <c r="K54" t="inlineStr">
+        <is>
+          <t>tavomed bn qayta dogovor qilindi</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>2024-04-29 09:23:50</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>Xujaeva Marhabo</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>+998904128186</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>Buxoro</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>Buxoro</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>6son oilaviy poliklinika</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>Saidov Shamsillo</t>
+        </is>
+      </c>
+      <c r="H55" t="inlineStr">
+        <is>
+          <t>LOR</t>
+        </is>
+      </c>
+      <c r="I55" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="J55" t="inlineStr">
+        <is>
+          <t>+998907448068</t>
+        </is>
+      </c>
+      <c r="K55" t="inlineStr">
+        <is>
+          <t>tavomed yozyapti</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>2024-04-29 12:19:51</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>Marhabo Xujaeva</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>+998904128186</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>Buxoro</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>Kogon shahar poliklinikasi</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>Kogon shahar poliklinikasi</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>Yakubova Dildora</t>
+        </is>
+      </c>
+      <c r="H56" t="inlineStr">
+        <is>
+          <t>Ginekolog</t>
+        </is>
+      </c>
+      <c r="I56" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="J56" t="inlineStr">
+        <is>
+          <t>+998936255446</t>
+        </is>
+      </c>
+      <c r="K56" t="inlineStr">
+        <is>
+          <t>intrizol yozyapti Madina farmdan olingan dori bali berildi 500</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
